--- a/public/excel/学生信息上传模板.xlsx
+++ b/public/excel/学生信息上传模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\resource\cqut\web\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H3C\Desktop\导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCAF9FD-1652-4F33-8885-7AB68A1BB134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5436FDA-3252-417F-A481-45A1C34597D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="3060" windowWidth="20325" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>用户id</t>
   </si>
@@ -31,33 +31,40 @@
     <t>真实姓名</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>身份证号</t>
+    <t>权限码(1管理员 2教师 3学生)</t>
+  </si>
+  <si>
+    <t>24003</t>
   </si>
   <si>
     <t>id（不填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限码(2教师 3学生)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>430233463456039832</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -69,8 +76,11 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
@@ -80,10 +90,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF383B40"/>
-      <name val="Segoe UI"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -128,19 +151,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -159,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,39 +191,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -253,7 +275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -305,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -364,13 +386,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -379,6 +394,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -443,11 +465,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -463,13 +505,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -484,35 +524,60 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
+        <v>1520203404</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>1339876535</v>
-      </c>
-      <c r="C2">
-        <v>1003</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>13299999999</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>